--- a/Code/Results/Cases/Case_1_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_234/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.82348340963719</v>
+        <v>17.37131022859002</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.09613272316275</v>
+        <v>10.60893782362525</v>
       </c>
       <c r="E2">
-        <v>11.47675241299258</v>
+        <v>14.23731866831932</v>
       </c>
       <c r="F2">
-        <v>64.87403335045759</v>
+        <v>54.32545083618871</v>
       </c>
       <c r="G2">
-        <v>2.129755670138574</v>
+        <v>3.745128041384726</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.70131150544819</v>
+        <v>11.39029763452691</v>
       </c>
       <c r="L2">
-        <v>5.82240010487194</v>
+        <v>9.528849336290754</v>
       </c>
       <c r="M2">
-        <v>10.14724425826133</v>
+        <v>16.34350017344744</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.36229248360072</v>
+        <v>17.34399358617459</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.68833522933294</v>
+        <v>10.47038548838081</v>
       </c>
       <c r="E3">
-        <v>11.2649258144785</v>
+        <v>14.17000276143773</v>
       </c>
       <c r="F3">
-        <v>61.44699327934283</v>
+        <v>53.16764341043818</v>
       </c>
       <c r="G3">
-        <v>2.141908566628008</v>
+        <v>3.749142674727254</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.79482925570044</v>
+        <v>11.35246705026425</v>
       </c>
       <c r="L3">
-        <v>5.71075959819281</v>
+        <v>9.54859874891388</v>
       </c>
       <c r="M3">
-        <v>9.974384304441456</v>
+        <v>16.36830337400906</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.08133121010381</v>
+        <v>17.33143296835376</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.43364812719718</v>
+        <v>10.38359068744915</v>
       </c>
       <c r="E4">
-        <v>11.13465006756136</v>
+        <v>14.12694154923682</v>
       </c>
       <c r="F4">
-        <v>59.28507410659341</v>
+        <v>52.44701645988397</v>
       </c>
       <c r="G4">
-        <v>2.149510654908479</v>
+        <v>3.751731923495542</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.21456464068993</v>
+        <v>11.33603206860081</v>
       </c>
       <c r="L4">
-        <v>5.646843562569788</v>
+        <v>9.562889261545513</v>
       </c>
       <c r="M4">
-        <v>9.874716168087437</v>
+        <v>16.38675426709716</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.96752146442292</v>
+        <v>17.32737760656437</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.32879619530769</v>
+        <v>10.34780374863775</v>
       </c>
       <c r="E5">
-        <v>11.08140943033313</v>
+        <v>14.10895648747819</v>
       </c>
       <c r="F5">
-        <v>58.38996538563791</v>
+        <v>52.15121351944946</v>
       </c>
       <c r="G5">
-        <v>2.152647367811257</v>
+        <v>3.752818435168901</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.97197613541614</v>
+        <v>11.33104680180436</v>
       </c>
       <c r="L5">
-        <v>5.621948001074033</v>
+        <v>9.569256127685984</v>
       </c>
       <c r="M5">
-        <v>9.835716125531528</v>
+        <v>16.3950828316212</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.94866878633159</v>
+        <v>17.32676853242085</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.31132200579325</v>
+        <v>10.34183661815605</v>
       </c>
       <c r="E6">
-        <v>11.07255696922532</v>
+        <v>14.10594359854151</v>
       </c>
       <c r="F6">
-        <v>58.24049622804645</v>
+        <v>52.10197543190171</v>
       </c>
       <c r="G6">
-        <v>2.153170658195808</v>
+        <v>3.753000748156808</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.9313198064979</v>
+        <v>11.3303224561688</v>
       </c>
       <c r="L6">
-        <v>5.617883190532474</v>
+        <v>9.570346131504191</v>
       </c>
       <c r="M6">
-        <v>9.829337428609069</v>
+        <v>16.39651466982767</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.07979338180592</v>
+        <v>17.33137396682813</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.43223833873205</v>
+        <v>10.38310972079998</v>
       </c>
       <c r="E7">
-        <v>11.13393278534015</v>
+        <v>14.12670077007481</v>
       </c>
       <c r="F7">
-        <v>59.27305882732819</v>
+        <v>52.44303541901488</v>
       </c>
       <c r="G7">
-        <v>2.149552796136796</v>
+        <v>3.751746449380605</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.21131802588572</v>
+        <v>11.33595790076431</v>
       </c>
       <c r="L7">
-        <v>5.646503171946502</v>
+        <v>9.562972928513073</v>
       </c>
       <c r="M7">
-        <v>9.874183673916139</v>
+        <v>16.38686331142128</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.66407771398293</v>
+        <v>17.36101997557033</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.95642143847424</v>
+        <v>10.56153207646486</v>
       </c>
       <c r="E8">
-        <v>11.40369638909258</v>
+        <v>14.21446547779806</v>
       </c>
       <c r="F8">
-        <v>63.70455195559494</v>
+        <v>53.92843731356681</v>
       </c>
       <c r="G8">
-        <v>2.133919140433699</v>
+        <v>3.746486577035969</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.39356304918358</v>
+        <v>11.37584716357758</v>
       </c>
       <c r="L8">
-        <v>5.782936840911233</v>
+        <v>9.535209247541506</v>
       </c>
       <c r="M8">
-        <v>10.08629303738733</v>
+        <v>16.35138345939686</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.8227048792985</v>
+        <v>17.45235803281999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.9503336766418</v>
+        <v>10.89706548406584</v>
       </c>
       <c r="E9">
-        <v>11.93604313299269</v>
+        <v>14.37296840180064</v>
       </c>
       <c r="F9">
-        <v>71.92857817323927</v>
+        <v>56.75133973158523</v>
       </c>
       <c r="G9">
-        <v>2.10419454819856</v>
+        <v>3.737151952933579</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.53271825931474</v>
+        <v>11.50762505230226</v>
       </c>
       <c r="L9">
-        <v>6.087896894782034</v>
+        <v>9.497972192769723</v>
       </c>
       <c r="M9">
-        <v>10.55411250027476</v>
+        <v>16.3073834379015</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.67711481224663</v>
+        <v>17.53935860291965</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.66125750150054</v>
+        <v>11.13395358277016</v>
       </c>
       <c r="E10">
-        <v>12.33728450258988</v>
+        <v>14.48129029450949</v>
       </c>
       <c r="F10">
-        <v>77.68890107205462</v>
+        <v>58.7543418614801</v>
       </c>
       <c r="G10">
-        <v>2.082641356226598</v>
+        <v>3.730882976464295</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.00882030183039</v>
+        <v>11.63638406721129</v>
       </c>
       <c r="L10">
-        <v>6.410532721181443</v>
+        <v>9.481145959012954</v>
       </c>
       <c r="M10">
-        <v>10.93046262349316</v>
+        <v>16.29065886513044</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.06603902631585</v>
+        <v>17.58316510646494</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.98119442377139</v>
+        <v>11.23945165641747</v>
       </c>
       <c r="E11">
-        <v>12.52419168132408</v>
+        <v>14.52883849940475</v>
       </c>
       <c r="F11">
-        <v>80.25249062670341</v>
+        <v>59.64702767196655</v>
       </c>
       <c r="G11">
-        <v>2.07282381451438</v>
+        <v>3.728157223183887</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.6631901536845</v>
+        <v>11.70167532246904</v>
       </c>
       <c r="L11">
-        <v>6.652502471781942</v>
+        <v>9.475784556584735</v>
       </c>
       <c r="M11">
-        <v>11.1091049479647</v>
+        <v>16.2864366906242</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.21335144963699</v>
+        <v>17.6003524833137</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.10193634505685</v>
+        <v>11.27906109020207</v>
       </c>
       <c r="E12">
-        <v>12.59581604599549</v>
+        <v>14.54659802341144</v>
       </c>
       <c r="F12">
-        <v>81.21568924934537</v>
+        <v>59.98216648512742</v>
       </c>
       <c r="G12">
-        <v>2.069097010031582</v>
+        <v>3.727143038689221</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.90887342257617</v>
+        <v>11.72734249918851</v>
       </c>
       <c r="L12">
-        <v>6.743082107458117</v>
+        <v>9.474084329497421</v>
       </c>
       <c r="M12">
-        <v>11.17786244021524</v>
+        <v>16.28532421819884</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.18162316219446</v>
+        <v>17.59662440058369</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.07594902754019</v>
+        <v>11.2705458607071</v>
       </c>
       <c r="E13">
-        <v>12.58034895879403</v>
+        <v>14.54278409047369</v>
       </c>
       <c r="F13">
-        <v>81.00857251604813</v>
+        <v>59.91012110361562</v>
       </c>
       <c r="G13">
-        <v>2.069900177000673</v>
+        <v>3.727360662932223</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.8560489623956</v>
+        <v>11.72177308198704</v>
       </c>
       <c r="L13">
-        <v>6.723619164273048</v>
+        <v>9.474435822881926</v>
       </c>
       <c r="M13">
-        <v>11.16300415685003</v>
+        <v>16.28554218798725</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.07815768422539</v>
+        <v>17.58456717812676</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.99113558193273</v>
+        <v>11.24271725386109</v>
       </c>
       <c r="E14">
-        <v>12.53006592138867</v>
+        <v>14.5303045007923</v>
       </c>
       <c r="F14">
-        <v>80.33188127704773</v>
+        <v>59.67465923627505</v>
       </c>
       <c r="G14">
-        <v>2.072517436279334</v>
+        <v>3.728073425599078</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.68344281391043</v>
+        <v>11.70376822458386</v>
       </c>
       <c r="L14">
-        <v>6.659974946762078</v>
+        <v>9.475638062597119</v>
       </c>
       <c r="M14">
-        <v>11.11473915520725</v>
+        <v>16.286335422936</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.01478724179045</v>
+        <v>17.57725947026148</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.93913438122185</v>
+        <v>11.22562666584709</v>
       </c>
       <c r="E15">
-        <v>12.49938341862693</v>
+        <v>14.52262843717275</v>
       </c>
       <c r="F15">
-        <v>79.91642272285343</v>
+        <v>59.53004719510803</v>
       </c>
       <c r="G15">
-        <v>2.074119161890986</v>
+        <v>3.728512353633775</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.57745271291028</v>
+        <v>11.69286177159819</v>
       </c>
       <c r="L15">
-        <v>6.620857446861464</v>
+        <v>9.476417453836484</v>
       </c>
       <c r="M15">
-        <v>11.08532135219479</v>
+        <v>16.2868846233672</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.65170190855278</v>
+        <v>17.53658006957713</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.64028598359455</v>
+        <v>11.12701220123299</v>
       </c>
       <c r="E16">
-        <v>12.32517555844046</v>
+        <v>14.47814835250719</v>
       </c>
       <c r="F16">
-        <v>77.520267227855</v>
+        <v>58.69560952072575</v>
       </c>
       <c r="G16">
-        <v>2.083282100001062</v>
+        <v>3.731063636348726</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.9657399406269</v>
+        <v>11.63225039156388</v>
       </c>
       <c r="L16">
-        <v>6.394567184662103</v>
+        <v>9.481542507764301</v>
       </c>
       <c r="M16">
-        <v>10.91894072440929</v>
+        <v>16.29100288818737</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.42901383308178</v>
+        <v>17.51270143741868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.45611836304887</v>
+        <v>11.06592490457324</v>
       </c>
       <c r="E17">
-        <v>12.21957007063028</v>
+        <v>14.45042048546517</v>
       </c>
       <c r="F17">
-        <v>76.0361099064217</v>
+        <v>58.17879510646278</v>
       </c>
       <c r="G17">
-        <v>2.088895128863724</v>
+        <v>3.732660957624689</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.58632267688322</v>
+        <v>11.59677229656988</v>
       </c>
       <c r="L17">
-        <v>6.262105113177557</v>
+        <v>9.485274095696481</v>
       </c>
       <c r="M17">
-        <v>10.81880121757497</v>
+        <v>16.29439622529985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30095104481516</v>
+        <v>17.49936579770221</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.3498570835063</v>
+        <v>11.03057691322195</v>
       </c>
       <c r="E18">
-        <v>12.15922602576574</v>
+        <v>14.43430935345041</v>
       </c>
       <c r="F18">
-        <v>75.17706697988127</v>
+        <v>57.87981025983502</v>
       </c>
       <c r="G18">
-        <v>2.092122874631358</v>
+        <v>3.733591565078171</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.36645717896705</v>
+        <v>11.57700015762377</v>
       </c>
       <c r="L18">
-        <v>6.224572078099674</v>
+        <v>9.487636219549035</v>
       </c>
       <c r="M18">
-        <v>10.76190073327162</v>
+        <v>16.2966667263151</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.25759543061083</v>
+        <v>17.49491933181183</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.31381942377058</v>
+        <v>11.01857270932063</v>
       </c>
       <c r="E19">
-        <v>12.138856785563</v>
+        <v>14.42882636365271</v>
       </c>
       <c r="F19">
-        <v>74.8852685174963</v>
+        <v>57.77829021597762</v>
       </c>
       <c r="G19">
-        <v>2.093215814308411</v>
+        <v>3.733908695341956</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.29172391583089</v>
+        <v>11.57041519046901</v>
       </c>
       <c r="L19">
-        <v>6.211952199219679</v>
+        <v>9.488473048760095</v>
       </c>
       <c r="M19">
-        <v>10.74275393006202</v>
+        <v>16.29749023559403</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.45271724254868</v>
+        <v>17.51520215817772</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.47575722995839</v>
+        <v>11.07244982256538</v>
       </c>
       <c r="E20">
-        <v>12.23076936302622</v>
+        <v>14.45338899472829</v>
       </c>
       <c r="F20">
-        <v>76.19465570149876</v>
+        <v>58.2339914206996</v>
       </c>
       <c r="G20">
-        <v>2.088297736061575</v>
+        <v>3.732489692400343</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.62687911393707</v>
+        <v>11.60048355138443</v>
       </c>
       <c r="L20">
-        <v>6.269093741039258</v>
+        <v>9.484854523338241</v>
       </c>
       <c r="M20">
-        <v>10.82938884356212</v>
+        <v>16.29400201312514</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.10854688281393</v>
+        <v>17.58809250422875</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.01605768065606</v>
+        <v>11.25090054462562</v>
       </c>
       <c r="E21">
-        <v>12.5448103820351</v>
+        <v>14.53397671358508</v>
       </c>
       <c r="F21">
-        <v>80.53084177984017</v>
+        <v>59.74390070701902</v>
       </c>
       <c r="G21">
-        <v>2.071748994531327</v>
+        <v>3.727863582428182</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.73419571184288</v>
+        <v>11.70903129952133</v>
       </c>
       <c r="L21">
-        <v>6.678696445086146</v>
+        <v>9.475275977344985</v>
       </c>
       <c r="M21">
-        <v>11.1288852591111</v>
+        <v>16.28608923576364</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.53739955472966</v>
+        <v>17.63921591449793</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.3668385531807</v>
+        <v>11.36553779305851</v>
       </c>
       <c r="E22">
-        <v>12.75511763496307</v>
+        <v>14.58521304628826</v>
       </c>
       <c r="F22">
-        <v>83.32105326753194</v>
+        <v>60.71369800692695</v>
       </c>
       <c r="G22">
-        <v>2.060876096814396</v>
+        <v>3.724945007064176</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.4457802841988</v>
+        <v>11.78545618175706</v>
       </c>
       <c r="L22">
-        <v>6.940503061740522</v>
+        <v>9.470939487265371</v>
       </c>
       <c r="M22">
-        <v>11.33111959626696</v>
+        <v>16.28375234136109</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.30848298916005</v>
+        <v>17.61161479432889</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.17979806145066</v>
+        <v>11.3045406585677</v>
       </c>
       <c r="E23">
-        <v>12.64232793273352</v>
+        <v>14.55799747786436</v>
       </c>
       <c r="F23">
-        <v>81.83561568783593</v>
+        <v>60.19773189551208</v>
       </c>
       <c r="G23">
-        <v>2.066687113103635</v>
+        <v>3.726493152554053</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.06697283771992</v>
+        <v>11.74417350549307</v>
       </c>
       <c r="L23">
-        <v>6.801291413155893</v>
+        <v>9.473077878791738</v>
       </c>
       <c r="M23">
-        <v>11.22257204953916</v>
+        <v>16.28474045014004</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.44200104415936</v>
+        <v>17.51407035905824</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.46687969072614</v>
+        <v>11.06950061645594</v>
       </c>
       <c r="E24">
-        <v>12.22570502643764</v>
+        <v>14.45204746143082</v>
       </c>
       <c r="F24">
-        <v>76.12299519643797</v>
+        <v>58.20904294611638</v>
       </c>
       <c r="G24">
-        <v>2.088567814507418</v>
+        <v>3.732567083130089</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.60854897370386</v>
+        <v>11.59880374558</v>
       </c>
       <c r="L24">
-        <v>6.265932621867819</v>
+        <v>9.485043536790954</v>
       </c>
       <c r="M24">
-        <v>10.82460009049659</v>
+        <v>16.29417924084799</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.50846092481859</v>
+        <v>17.42412633742456</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.68501406417477</v>
+        <v>10.80792356508406</v>
       </c>
       <c r="E25">
-        <v>11.79090424376828</v>
+        <v>14.33152869013622</v>
       </c>
       <c r="F25">
-        <v>69.75409072526061</v>
+        <v>55.99902398589776</v>
       </c>
       <c r="G25">
-        <v>2.112163079616591</v>
+        <v>3.739573156806155</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.97189297220152</v>
+        <v>11.46630184739796</v>
       </c>
       <c r="L25">
-        <v>6.001288564438745</v>
+        <v>9.506198814409915</v>
       </c>
       <c r="M25">
-        <v>10.42191164063196</v>
+        <v>16.31654666638036</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_234/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_234/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.37131022859002</v>
+        <v>12.82348340963725</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.60893782362525</v>
+        <v>11.09613272316281</v>
       </c>
       <c r="E2">
-        <v>14.23731866831932</v>
+        <v>11.47675241299273</v>
       </c>
       <c r="F2">
-        <v>54.32545083618871</v>
+        <v>64.87403335045789</v>
       </c>
       <c r="G2">
-        <v>3.745128041384726</v>
+        <v>2.129755670138453</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.39029763452691</v>
+        <v>12.70131150544821</v>
       </c>
       <c r="L2">
-        <v>9.528849336290754</v>
+        <v>5.822400104871874</v>
       </c>
       <c r="M2">
-        <v>16.34350017344744</v>
+        <v>10.14724425826132</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.34399358617459</v>
+        <v>12.36229248360067</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.47038548838081</v>
+        <v>10.68833522933305</v>
       </c>
       <c r="E3">
-        <v>14.17000276143773</v>
+        <v>11.26492581447847</v>
       </c>
       <c r="F3">
-        <v>53.16764341043818</v>
+        <v>61.44699327934293</v>
       </c>
       <c r="G3">
-        <v>3.749142674727254</v>
+        <v>2.141908566628008</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.35246705026425</v>
+        <v>11.79482925570047</v>
       </c>
       <c r="L3">
-        <v>9.54859874891388</v>
+        <v>5.710759598192843</v>
       </c>
       <c r="M3">
-        <v>16.36830337400906</v>
+        <v>9.974384304441399</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.33143296835376</v>
+        <v>12.08133121010381</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.38359068744915</v>
+        <v>10.43364812719719</v>
       </c>
       <c r="E4">
-        <v>14.12694154923682</v>
+        <v>11.13465006756143</v>
       </c>
       <c r="F4">
-        <v>52.44701645988397</v>
+        <v>59.28507410659346</v>
       </c>
       <c r="G4">
-        <v>3.751731923495542</v>
+        <v>2.149510654909003</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.33603206860081</v>
+        <v>11.21456464069003</v>
       </c>
       <c r="L4">
-        <v>9.562889261545513</v>
+        <v>5.646843562569734</v>
       </c>
       <c r="M4">
-        <v>16.38675426709716</v>
+        <v>9.874716168087392</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32737760656437</v>
+        <v>11.96752146442293</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.34780374863775</v>
+        <v>10.3287961953077</v>
       </c>
       <c r="E5">
-        <v>14.10895648747819</v>
+        <v>11.0814094303332</v>
       </c>
       <c r="F5">
-        <v>52.15121351944946</v>
+        <v>58.38996538563778</v>
       </c>
       <c r="G5">
-        <v>3.752818435168901</v>
+        <v>2.152647367811512</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.33104680180436</v>
+        <v>10.97197613541624</v>
       </c>
       <c r="L5">
-        <v>9.569256127685984</v>
+        <v>5.621948001074065</v>
       </c>
       <c r="M5">
-        <v>16.3950828316212</v>
+        <v>9.835716125531516</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.32676853242085</v>
+        <v>11.9486687863316</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.34183661815605</v>
+        <v>10.31132200579319</v>
       </c>
       <c r="E6">
-        <v>14.10594359854151</v>
+        <v>11.07255696922525</v>
       </c>
       <c r="F6">
-        <v>52.10197543190171</v>
+        <v>58.24049622804633</v>
       </c>
       <c r="G6">
-        <v>3.753000748156808</v>
+        <v>2.153170658195679</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.3303224561688</v>
+        <v>10.93131980649787</v>
       </c>
       <c r="L6">
-        <v>9.570346131504191</v>
+        <v>5.61788319053242</v>
       </c>
       <c r="M6">
-        <v>16.39651466982767</v>
+        <v>9.829337428609062</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.33137396682813</v>
+        <v>12.0797933818059</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.38310972079998</v>
+        <v>10.43223833873214</v>
       </c>
       <c r="E7">
-        <v>14.12670077007481</v>
+        <v>11.13393278533989</v>
       </c>
       <c r="F7">
-        <v>52.44303541901488</v>
+        <v>59.27305882732819</v>
       </c>
       <c r="G7">
-        <v>3.751746449380605</v>
+        <v>2.149552796136394</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.33595790076431</v>
+        <v>11.21131802588566</v>
       </c>
       <c r="L7">
-        <v>9.562972928513073</v>
+        <v>5.646503171946468</v>
       </c>
       <c r="M7">
-        <v>16.38686331142128</v>
+        <v>9.874183673916102</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.36101997557033</v>
+        <v>12.66407771398287</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.56153207646486</v>
+        <v>10.95642143847433</v>
       </c>
       <c r="E8">
-        <v>14.21446547779806</v>
+        <v>11.40369638909272</v>
       </c>
       <c r="F8">
-        <v>53.92843731356681</v>
+        <v>63.70455195559506</v>
       </c>
       <c r="G8">
-        <v>3.746486577035969</v>
+        <v>2.133919140434235</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.37584716357758</v>
+        <v>12.39356304918371</v>
       </c>
       <c r="L8">
-        <v>9.535209247541506</v>
+        <v>5.782936840911233</v>
       </c>
       <c r="M8">
-        <v>16.35138345939686</v>
+        <v>10.08629303738731</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.45235803281999</v>
+        <v>13.82270487929854</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.89706548406584</v>
+        <v>11.9503336766418</v>
       </c>
       <c r="E9">
-        <v>14.37296840180064</v>
+        <v>11.93604313299296</v>
       </c>
       <c r="F9">
-        <v>56.75133973158523</v>
+        <v>71.92857817323933</v>
       </c>
       <c r="G9">
-        <v>3.737151952933579</v>
+        <v>2.104194548198817</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.50762505230226</v>
+        <v>14.53271825931489</v>
       </c>
       <c r="L9">
-        <v>9.497972192769723</v>
+        <v>6.087896894782041</v>
       </c>
       <c r="M9">
-        <v>16.3073834379015</v>
+        <v>10.5541125002748</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.53935860291965</v>
+        <v>14.67711481224664</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.13395358277016</v>
+        <v>12.66125750150047</v>
       </c>
       <c r="E10">
-        <v>14.48129029450949</v>
+        <v>12.33728450259015</v>
       </c>
       <c r="F10">
-        <v>58.7543418614801</v>
+        <v>77.68890107205468</v>
       </c>
       <c r="G10">
-        <v>3.730882976464295</v>
+        <v>2.082641356226465</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.63638406721129</v>
+        <v>16.00882030183052</v>
       </c>
       <c r="L10">
-        <v>9.481145959012954</v>
+        <v>6.410532721181431</v>
       </c>
       <c r="M10">
-        <v>16.29065886513044</v>
+        <v>10.93046262349318</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.58316510646494</v>
+        <v>15.0660390263158</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.23945165641747</v>
+        <v>12.98119442377139</v>
       </c>
       <c r="E11">
-        <v>14.52883849940475</v>
+        <v>12.52419168132425</v>
       </c>
       <c r="F11">
-        <v>59.64702767196655</v>
+        <v>80.25249062670304</v>
       </c>
       <c r="G11">
-        <v>3.728157223183887</v>
+        <v>2.072823814514366</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.70167532246904</v>
+        <v>16.66319015368463</v>
       </c>
       <c r="L11">
-        <v>9.475784556584735</v>
+        <v>6.652502471781867</v>
       </c>
       <c r="M11">
-        <v>16.2864366906242</v>
+        <v>11.10910494796471</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.6003524833137</v>
+        <v>15.21335144963706</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.27906109020207</v>
+        <v>13.10193634505698</v>
       </c>
       <c r="E12">
-        <v>14.54659802341144</v>
+        <v>12.59581604599559</v>
       </c>
       <c r="F12">
-        <v>59.98216648512742</v>
+        <v>81.21568924934564</v>
       </c>
       <c r="G12">
-        <v>3.727143038689221</v>
+        <v>2.069097010031729</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.72734249918851</v>
+        <v>16.9088734225762</v>
       </c>
       <c r="L12">
-        <v>9.474084329497421</v>
+        <v>6.743082107458186</v>
       </c>
       <c r="M12">
-        <v>16.28532421819884</v>
+        <v>11.17786244021522</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.59662440058369</v>
+        <v>15.18162316219447</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.2705458607071</v>
+        <v>13.07594902754043</v>
       </c>
       <c r="E13">
-        <v>14.54278409047369</v>
+        <v>12.580348958794</v>
       </c>
       <c r="F13">
-        <v>59.91012110361562</v>
+        <v>81.0085725160491</v>
       </c>
       <c r="G13">
-        <v>3.727360662932223</v>
+        <v>2.069900177000554</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.72177308198704</v>
+        <v>16.85604896239561</v>
       </c>
       <c r="L13">
-        <v>9.474435822881926</v>
+        <v>6.723619164273073</v>
       </c>
       <c r="M13">
-        <v>16.28554218798725</v>
+        <v>11.16300415684998</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.58456717812676</v>
+        <v>15.07815768422538</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.24271725386109</v>
+        <v>12.99113558193283</v>
       </c>
       <c r="E14">
-        <v>14.5303045007923</v>
+        <v>12.5300659213886</v>
       </c>
       <c r="F14">
-        <v>59.67465923627505</v>
+        <v>80.33188127704767</v>
       </c>
       <c r="G14">
-        <v>3.728073425599078</v>
+        <v>2.072517436278941</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.70376822458386</v>
+        <v>16.68344281391046</v>
       </c>
       <c r="L14">
-        <v>9.475638062597119</v>
+        <v>6.659974946762127</v>
       </c>
       <c r="M14">
-        <v>16.286335422936</v>
+        <v>11.11473915520725</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.57725947026148</v>
+        <v>15.01478724179039</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.22562666584709</v>
+        <v>12.93913438122198</v>
       </c>
       <c r="E15">
-        <v>14.52262843717275</v>
+        <v>12.49938341862702</v>
       </c>
       <c r="F15">
-        <v>59.53004719510803</v>
+        <v>79.91642272285392</v>
       </c>
       <c r="G15">
-        <v>3.728512353633775</v>
+        <v>2.074119161890848</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.69286177159819</v>
+        <v>16.57745271291042</v>
       </c>
       <c r="L15">
-        <v>9.476417453836484</v>
+        <v>6.620857446861532</v>
       </c>
       <c r="M15">
-        <v>16.2868846233672</v>
+        <v>11.08532135219473</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.53658006957713</v>
+        <v>14.65170190855276</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.12701220123299</v>
+        <v>12.64028598359467</v>
       </c>
       <c r="E16">
-        <v>14.47814835250719</v>
+        <v>12.3251755584407</v>
       </c>
       <c r="F16">
-        <v>58.69560952072575</v>
+        <v>77.5202672278549</v>
       </c>
       <c r="G16">
-        <v>3.731063636348726</v>
+        <v>2.083282100000924</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.63225039156388</v>
+        <v>15.96573994062704</v>
       </c>
       <c r="L16">
-        <v>9.481542507764301</v>
+        <v>6.394567184662073</v>
       </c>
       <c r="M16">
-        <v>16.29100288818737</v>
+        <v>10.91894072440928</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.51270143741868</v>
+        <v>14.42901383308176</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.06592490457324</v>
+        <v>12.45611836304891</v>
       </c>
       <c r="E17">
-        <v>14.45042048546517</v>
+        <v>12.21957007063031</v>
       </c>
       <c r="F17">
-        <v>58.17879510646278</v>
+        <v>76.03610990642173</v>
       </c>
       <c r="G17">
-        <v>3.732660957624689</v>
+        <v>2.088895128863326</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.59677229656988</v>
+        <v>15.58632267688327</v>
       </c>
       <c r="L17">
-        <v>9.485274095696481</v>
+        <v>6.26210511317755</v>
       </c>
       <c r="M17">
-        <v>16.29439622529985</v>
+        <v>10.81880121757492</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.49936579770221</v>
+        <v>14.30095104481511</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.03057691322195</v>
+        <v>12.34985708350624</v>
       </c>
       <c r="E18">
-        <v>14.43430935345041</v>
+        <v>12.15922602576567</v>
       </c>
       <c r="F18">
-        <v>57.87981025983502</v>
+        <v>75.17706697988127</v>
       </c>
       <c r="G18">
-        <v>3.733591565078171</v>
+        <v>2.092122874631215</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.57700015762377</v>
+        <v>15.36645717896715</v>
       </c>
       <c r="L18">
-        <v>9.487636219549035</v>
+        <v>6.224572078099678</v>
       </c>
       <c r="M18">
-        <v>16.2966667263151</v>
+        <v>10.76190073327158</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.49491933181183</v>
+        <v>14.25759543061084</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.01857270932063</v>
+        <v>12.31381942377048</v>
       </c>
       <c r="E19">
-        <v>14.42882636365271</v>
+        <v>12.13885678556306</v>
       </c>
       <c r="F19">
-        <v>57.77829021597762</v>
+        <v>74.88526851749593</v>
       </c>
       <c r="G19">
-        <v>3.733908695341956</v>
+        <v>2.0932158143087</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.57041519046901</v>
+        <v>15.2917239158309</v>
       </c>
       <c r="L19">
-        <v>9.488473048760095</v>
+        <v>6.211952199219714</v>
       </c>
       <c r="M19">
-        <v>16.29749023559403</v>
+        <v>10.74275393006205</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.51520215817772</v>
+        <v>14.45271724254865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.07244982256538</v>
+        <v>12.47575722995835</v>
       </c>
       <c r="E20">
-        <v>14.45338899472829</v>
+        <v>12.23076936302638</v>
       </c>
       <c r="F20">
-        <v>58.2339914206996</v>
+        <v>76.19465570149848</v>
       </c>
       <c r="G20">
-        <v>3.732489692400343</v>
+        <v>2.088297736061441</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.60048355138443</v>
+        <v>15.62687911393721</v>
       </c>
       <c r="L20">
-        <v>9.484854523338241</v>
+        <v>6.269093741039317</v>
       </c>
       <c r="M20">
-        <v>16.29400201312514</v>
+        <v>10.82938884356212</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.58809250422875</v>
+        <v>15.10854688281393</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.25090054462562</v>
+        <v>13.01605768065617</v>
       </c>
       <c r="E21">
-        <v>14.53397671358508</v>
+        <v>12.54481038203501</v>
       </c>
       <c r="F21">
-        <v>59.74390070701902</v>
+        <v>80.53084177983982</v>
       </c>
       <c r="G21">
-        <v>3.727863582428182</v>
+        <v>2.071748994531203</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.70903129952133</v>
+        <v>16.73419571184296</v>
       </c>
       <c r="L21">
-        <v>9.475275977344985</v>
+        <v>6.678696445086146</v>
       </c>
       <c r="M21">
-        <v>16.28608923576364</v>
+        <v>11.12888525911109</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.63921591449793</v>
+        <v>15.53739955472969</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.36553779305851</v>
+        <v>13.36683855318088</v>
       </c>
       <c r="E22">
-        <v>14.58521304628826</v>
+        <v>12.75511763496313</v>
       </c>
       <c r="F22">
-        <v>60.71369800692695</v>
+        <v>83.32105326753229</v>
       </c>
       <c r="G22">
-        <v>3.724945007064176</v>
+        <v>2.060876096814535</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.78545618175706</v>
+        <v>17.44578028419875</v>
       </c>
       <c r="L22">
-        <v>9.470939487265371</v>
+        <v>6.940503061740391</v>
       </c>
       <c r="M22">
-        <v>16.28375234136109</v>
+        <v>11.33111959626696</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.61161479432889</v>
+        <v>15.30848298916006</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.3045406585677</v>
+        <v>13.17979806145067</v>
       </c>
       <c r="E23">
-        <v>14.55799747786436</v>
+        <v>12.64232793273331</v>
       </c>
       <c r="F23">
-        <v>60.19773189551208</v>
+        <v>81.83561568783564</v>
       </c>
       <c r="G23">
-        <v>3.726493152554053</v>
+        <v>2.066687113103635</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.74417350549307</v>
+        <v>17.06697283771975</v>
       </c>
       <c r="L23">
-        <v>9.473077878791738</v>
+        <v>6.801291413155873</v>
       </c>
       <c r="M23">
-        <v>16.28474045014004</v>
+        <v>11.22257204953917</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.51407035905824</v>
+        <v>14.44200104415936</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.06950061645594</v>
+        <v>12.46687969072605</v>
       </c>
       <c r="E24">
-        <v>14.45204746143082</v>
+        <v>12.2257050264375</v>
       </c>
       <c r="F24">
-        <v>58.20904294611638</v>
+        <v>76.12299519643754</v>
       </c>
       <c r="G24">
-        <v>3.732567083130089</v>
+        <v>2.08856781450769</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.59880374558</v>
+        <v>15.60854897370381</v>
       </c>
       <c r="L24">
-        <v>9.485043536790954</v>
+        <v>6.265932621867846</v>
       </c>
       <c r="M24">
-        <v>16.29417924084799</v>
+        <v>10.8246000904966</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.42412633742456</v>
+        <v>13.50846092481861</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.80792356508406</v>
+        <v>11.68501406417496</v>
       </c>
       <c r="E25">
-        <v>14.33152869013622</v>
+        <v>11.79090424376833</v>
       </c>
       <c r="F25">
-        <v>55.99902398589776</v>
+        <v>69.75409072526017</v>
       </c>
       <c r="G25">
-        <v>3.739573156806155</v>
+        <v>2.112163079617126</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.46630184739796</v>
+        <v>13.97189297220155</v>
       </c>
       <c r="L25">
-        <v>9.506198814409915</v>
+        <v>6.001288564438729</v>
       </c>
       <c r="M25">
-        <v>16.31654666638036</v>
+        <v>10.42191164063197</v>
       </c>
       <c r="N25">
         <v>0</v>
